--- a/data/trans_orig/CONS_DIG-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_DIG-Edad-trans_orig.xlsx
@@ -740,12 +740,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -755,12 +755,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -853,12 +853,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>62496</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>99,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">

--- a/data/trans_orig/CONS_DIG-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_DIG-Edad-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el estómago en País Vasco</t>
+          <t>Consumo de medicamentos para el estómago en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3532,7 +3532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el estómago en Andalucia</t>
+          <t>Consumo de medicamentos para el estómago en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6519,7 +6519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el estómago en C.Valenciana</t>
+          <t>Consumo de medicamentos para el estómago en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_DIG-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_DIG-Edad-trans_orig.xlsx
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>538</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>97</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1550</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>538</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>99</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>2123</t>
+          <t>1799</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,26%</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>61745</t>
+          <t>65704</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>60508</t>
+          <t>64692</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>62265</t>
+          <t>66145</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,8%</t>
+          <t>99,19%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>96,82%</t>
+          <t>97,66%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,64%</t>
+          <t>99,85%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>124561</t>
+          <t>142585</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>123186</t>
+          <t>141324</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>125078</t>
+          <t>143024</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>99,4%</t>
+          <t>99,62%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>98,31%</t>
+          <t>98,74%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,82%</t>
+          <t>99,93%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1190</t>
+          <t>889</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>314</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2841</t>
+          <t>2085</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>794</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>330</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1893</t>
+          <t>1818</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>1683</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>1020</t>
+          <t>904</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>3646</t>
+          <t>3087</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>2,16%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>67975</t>
+          <t>74094</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>66324</t>
+          <t>72898</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>68669</t>
+          <t>74669</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,28%</t>
+          <t>98,81%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,89%</t>
+          <t>97,22%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,28%</t>
+          <t>99,58%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>61652</t>
+          <t>67254</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>60590</t>
+          <t>66230</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>62148</t>
+          <t>67718</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>98,67%</t>
+          <t>98,83%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,97%</t>
+          <t>97,33%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,46%</t>
+          <t>99,51%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>129627</t>
+          <t>141348</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>128001</t>
+          <t>139944</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>130627</t>
+          <t>142127</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>98,47%</t>
+          <t>98,82%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>97,23%</t>
+          <t>97,84%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,23%</t>
+          <t>99,37%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2913</t>
+          <t>2815</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4593</t>
+          <t>4553</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>2511</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1336</t>
+          <t>1426</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4123</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>5372</t>
+          <t>5326</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>3610</t>
+          <t>3650</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>7527</t>
+          <t>7638</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>3,56%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91782</t>
+          <t>101145</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90102</t>
+          <t>99407</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>92885</t>
+          <t>102321</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,92%</t>
+          <t>97,29%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,15%</t>
+          <t>95,62%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,09%</t>
+          <t>98,42%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>95045</t>
+          <t>108204</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>93382</t>
+          <t>106466</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>96169</t>
+          <t>109289</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>97,48%</t>
+          <t>97,73%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>95,77%</t>
+          <t>96,16%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,63%</t>
+          <t>98,71%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>186828</t>
+          <t>209349</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>184673</t>
+          <t>207037</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>188590</t>
+          <t>211025</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>97,2%</t>
+          <t>97,52%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>96,08%</t>
+          <t>96,44%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,12%</t>
+          <t>98,3%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5543</t>
+          <t>5507</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3725</t>
+          <t>3762</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7891</t>
+          <t>7674</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6939</t>
+          <t>6916</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5072</t>
+          <t>4965</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9648</t>
+          <t>9719</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>12483</t>
+          <t>12423</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>9720</t>
+          <t>9740</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>15793</t>
+          <t>15559</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>5,23%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>133871</t>
+          <t>139271</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>131523</t>
+          <t>137104</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>135689</t>
+          <t>141016</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,02%</t>
+          <t>96,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>94,34%</t>
+          <t>94,7%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,33%</t>
+          <t>97,4%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>131036</t>
+          <t>145628</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>128327</t>
+          <t>142825</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>132903</t>
+          <t>147579</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>94,97%</t>
+          <t>95,47%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,01%</t>
+          <t>93,63%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,32%</t>
+          <t>96,74%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>264907</t>
+          <t>284898</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>261597</t>
+          <t>281762</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>267670</t>
+          <t>287581</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>95,5%</t>
+          <t>95,82%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>94,31%</t>
+          <t>94,77%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,5%</t>
+          <t>96,72%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2107,32 +2107,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12582</t>
+          <t>11307</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9914</t>
+          <t>8646</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16242</t>
+          <t>14424</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,32 +2142,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>10967</t>
+          <t>11060</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>8249</t>
+          <t>8486</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>13744</t>
+          <t>14501</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,32 +2177,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>23550</t>
+          <t>22367</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>19349</t>
+          <t>18848</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>27903</t>
+          <t>26494</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>9,41%</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>114272</t>
+          <t>118275</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>110612</t>
+          <t>115158</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>116940</t>
+          <t>120936</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>90,08%</t>
+          <t>91,27%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>87,2%</t>
+          <t>88,87%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>92,18%</t>
+          <t>93,33%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,32 +2255,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>136374</t>
+          <t>140855</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>133597</t>
+          <t>137414</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>139092</t>
+          <t>143429</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>92,72%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>90,67%</t>
+          <t>90,45%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>94,4%</t>
+          <t>94,41%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,32 +2290,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>250644</t>
+          <t>259131</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>246291</t>
+          <t>255004</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>254845</t>
+          <t>262650</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>91,41%</t>
+          <t>92,05%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>89,82%</t>
+          <t>90,59%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>93,3%</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2403,17 +2403,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2450,32 +2450,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>13623</t>
+          <t>13564</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10956</t>
+          <t>11084</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17164</t>
+          <t>17157</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>12,98%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2485,22 +2485,22 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>15729</t>
+          <t>15887</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>12677</t>
+          <t>12770</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>19040</t>
+          <t>19322</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>16,69%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2520,32 +2520,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>29352</t>
+          <t>29451</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>25591</t>
+          <t>25222</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>34304</t>
+          <t>34185</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>15,52%</t>
         </is>
       </c>
     </row>
@@ -2563,32 +2563,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>93981</t>
+          <t>90902</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>90440</t>
+          <t>87309</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>96648</t>
+          <t>93382</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>87,34%</t>
+          <t>87,02%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>84,05%</t>
+          <t>83,58%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>89,82%</t>
+          <t>89,39%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2598,27 +2598,27 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>99179</t>
+          <t>99893</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>95868</t>
+          <t>96458</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>102231</t>
+          <t>103010</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>86,31%</t>
+          <t>86,28%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>83,43%</t>
+          <t>83,31%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
@@ -2633,32 +2633,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>193160</t>
+          <t>190795</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>188208</t>
+          <t>186061</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>196921</t>
+          <t>195024</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>86,81%</t>
+          <t>86,63%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>84,58%</t>
+          <t>84,48%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>88,5%</t>
+          <t>88,55%</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2746,17 +2746,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2793,32 +2793,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>21858</t>
+          <t>20092</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>18265</t>
+          <t>16927</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>25622</t>
+          <t>23714</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>22,68%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>26,59%</t>
+          <t>26,58%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2828,32 +2828,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>28233</t>
+          <t>26753</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>24393</t>
+          <t>23044</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>32254</t>
+          <t>31072</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>20,22%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>24,08%</t>
+          <t>23,48%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2863,32 +2863,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>50090</t>
+          <t>46845</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>44684</t>
+          <t>41880</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>55729</t>
+          <t>52557</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>21,15%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>23,72%</t>
         </is>
       </c>
     </row>
@@ -2906,32 +2906,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>74497</t>
+          <t>69131</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>70733</t>
+          <t>65509</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>78090</t>
+          <t>72296</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>77,32%</t>
+          <t>77,48%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>73,41%</t>
+          <t>73,42%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>81,04%</t>
+          <t>81,03%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2941,32 +2941,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>105698</t>
+          <t>105559</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>101677</t>
+          <t>101240</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>109538</t>
+          <t>109268</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>78,92%</t>
+          <t>79,78%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>75,92%</t>
+          <t>76,52%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>81,79%</t>
+          <t>82,58%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2976,32 +2976,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>180196</t>
+          <t>174690</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>174557</t>
+          <t>168978</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>185602</t>
+          <t>179655</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>78,25%</t>
+          <t>78,85%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>75,8%</t>
+          <t>76,28%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>80,6%</t>
+          <t>81,1%</t>
         </is>
       </c>
     </row>
@@ -3019,17 +3019,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3089,17 +3089,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3136,32 +3136,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>57709</t>
+          <t>54175</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>51449</t>
+          <t>48389</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>64908</t>
+          <t>60837</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3171,32 +3171,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>65907</t>
+          <t>64458</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>59217</t>
+          <t>58504</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>73394</t>
+          <t>71335</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3206,32 +3206,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>123615</t>
+          <t>118633</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>114204</t>
+          <t>108945</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>132841</t>
+          <t>127198</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>8,36%</t>
         </is>
       </c>
     </row>
@@ -3249,32 +3249,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>639194</t>
+          <t>669697</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>631995</t>
+          <t>663035</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>645454</t>
+          <t>675483</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>91,72%</t>
+          <t>92,52%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>90,69%</t>
+          <t>91,6%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>92,62%</t>
+          <t>93,32%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3284,32 +3284,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>690728</t>
+          <t>733098</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>683241</t>
+          <t>726221</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>697418</t>
+          <t>739052</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>91,29%</t>
+          <t>91,92%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>90,3%</t>
+          <t>91,06%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>92,17%</t>
+          <t>92,66%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3319,32 +3319,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1329923</t>
+          <t>1402796</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1320697</t>
+          <t>1394231</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1339334</t>
+          <t>1412484</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>91,5%</t>
+          <t>92,2%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>90,86%</t>
+          <t>91,64%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>92,14%</t>
+          <t>92,84%</t>
         </is>
       </c>
     </row>
@@ -3362,17 +3362,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3397,17 +3397,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3432,17 +3432,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23856</t>
+          <t>25295</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8208</t>
+          <t>10429</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>31016</t>
+          <t>29693</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>7,06%</t>
         </is>
       </c>
     </row>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>212380</t>
+          <t>210941</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>89,9%</t>
+          <t>89,29%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>176145</t>
+          <t>173924</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -3890,7 +3890,7 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>95,55%</t>
+          <t>94,34%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>389573</t>
+          <t>390896</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>92,63%</t>
+          <t>92,94%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
@@ -4075,7 +4075,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6548</t>
+          <t>6443</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4105,12 +4105,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>905</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10773</t>
+          <t>10672</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4120,12 +4120,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -4140,12 +4140,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>1495</t>
+          <t>1469</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>11989</t>
+          <t>12250</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>2,25%</t>
         </is>
       </c>
     </row>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>222820</t>
+          <t>222925</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,15%</t>
+          <t>97,19%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -4218,12 +4218,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>303655</t>
+          <t>303756</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>313675</t>
+          <t>313523</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,57%</t>
+          <t>96,61%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,76%</t>
+          <t>99,71%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4253,12 +4253,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>531807</t>
+          <t>531546</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>542301</t>
+          <t>542327</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>97,8%</t>
+          <t>97,75%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
@@ -4413,12 +4413,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3407</t>
+          <t>3442</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15472</t>
+          <t>15406</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4428,12 +4428,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5679</t>
+          <t>5653</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15676</t>
+          <t>16085</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4463,12 +4463,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4483,12 +4483,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>11429</t>
+          <t>11789</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>27404</t>
+          <t>27648</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4498,12 +4498,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,37%</t>
         </is>
       </c>
     </row>
@@ -4526,12 +4526,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>295297</t>
+          <t>295363</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>307362</t>
+          <t>307327</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4541,12 +4541,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,02%</t>
+          <t>95,04%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,9%</t>
+          <t>98,89%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4561,12 +4561,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>306937</t>
+          <t>306528</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>316934</t>
+          <t>316960</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4576,12 +4576,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>95,14%</t>
+          <t>95,01%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,24%</t>
+          <t>98,25%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4596,12 +4596,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>605977</t>
+          <t>605733</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>621952</t>
+          <t>621592</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4611,12 +4611,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,67%</t>
+          <t>95,63%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,2%</t>
+          <t>98,14%</t>
         </is>
       </c>
     </row>
@@ -4756,12 +4756,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7056</t>
+          <t>6379</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>41756</t>
+          <t>43519</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4791,12 +4791,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9946</t>
+          <t>10015</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>22045</t>
+          <t>22267</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4806,12 +4806,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>16482</t>
+          <t>17633</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>54412</t>
+          <t>53539</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4841,12 +4841,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>5,19%</t>
         </is>
       </c>
     </row>
@@ -4869,12 +4869,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>585408</t>
+          <t>583645</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>620108</t>
+          <t>620785</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4884,12 +4884,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,34%</t>
+          <t>93,06%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,87%</t>
+          <t>98,98%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>382757</t>
+          <t>382535</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>394856</t>
+          <t>394787</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4919,12 +4919,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>94,55%</t>
+          <t>94,5%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>97,54%</t>
+          <t>97,53%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4939,12 +4939,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>977554</t>
+          <t>978427</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1015484</t>
+          <t>1014333</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4954,12 +4954,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>94,73%</t>
+          <t>94,81%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,4%</t>
+          <t>98,29%</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5099,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15304</t>
+          <t>15698</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>33096</t>
+          <t>32916</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5134,12 +5134,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>22569</t>
+          <t>22557</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>38485</t>
+          <t>39254</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5149,12 +5149,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5169,12 +5169,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>42588</t>
+          <t>42435</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>65890</t>
+          <t>65521</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>9,96%</t>
         </is>
       </c>
     </row>
@@ -5212,12 +5212,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>306033</t>
+          <t>306213</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>323825</t>
+          <t>323431</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -5227,12 +5227,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>90,24%</t>
+          <t>90,29%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>95,49%</t>
+          <t>95,37%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>280409</t>
+          <t>279640</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>296325</t>
+          <t>296337</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -5262,12 +5262,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>87,93%</t>
+          <t>87,69%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>92,92%</t>
+          <t>92,93%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -5282,12 +5282,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>592134</t>
+          <t>592503</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>615436</t>
+          <t>615589</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -5297,12 +5297,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>89,99%</t>
+          <t>90,04%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>93,53%</t>
+          <t>93,55%</t>
         </is>
       </c>
     </row>
@@ -5442,12 +5442,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11155</t>
+          <t>11058</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>24624</t>
+          <t>23614</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5457,12 +5457,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5477,12 +5477,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>9597</t>
+          <t>7512</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>57217</t>
+          <t>56563</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5492,12 +5492,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5512,12 +5512,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>17451</t>
+          <t>16005</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>68856</t>
+          <t>69855</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5527,12 +5527,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>10,57%</t>
         </is>
       </c>
     </row>
@@ -5555,12 +5555,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>183460</t>
+          <t>184470</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>196929</t>
+          <t>197026</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>88,17%</t>
+          <t>88,65%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>94,64%</t>
+          <t>94,69%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5590,12 +5590,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>395425</t>
+          <t>396079</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>443045</t>
+          <t>445130</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>87,36%</t>
+          <t>87,5%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>97,88%</t>
+          <t>98,34%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5625,12 +5625,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>591871</t>
+          <t>590872</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>643276</t>
+          <t>644722</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5640,12 +5640,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>89,58%</t>
+          <t>89,43%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,36%</t>
+          <t>97,58%</t>
         </is>
       </c>
     </row>
@@ -5785,12 +5785,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>18308</t>
+          <t>18439</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>32606</t>
+          <t>32522</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5800,12 +5800,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5820,12 +5820,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>32886</t>
+          <t>34064</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>50426</t>
+          <t>50799</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5835,12 +5835,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>14,58%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>21,59%</t>
+          <t>21,75%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5855,12 +5855,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>57092</t>
+          <t>56660</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>79243</t>
+          <t>78361</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5870,12 +5870,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>20,33%</t>
         </is>
       </c>
     </row>
@@ -5898,12 +5898,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>119169</t>
+          <t>119253</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>133467</t>
+          <t>133336</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5913,12 +5913,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>78,52%</t>
+          <t>78,57%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>87,94%</t>
+          <t>87,85%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5933,12 +5933,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>183178</t>
+          <t>182805</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>200718</t>
+          <t>199540</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5948,12 +5948,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>78,41%</t>
+          <t>78,25%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>85,92%</t>
+          <t>85,42%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5968,12 +5968,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>306136</t>
+          <t>307018</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>328287</t>
+          <t>328719</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5983,12 +5983,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>79,44%</t>
+          <t>79,67%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>85,19%</t>
+          <t>85,3%</t>
         </is>
       </c>
     </row>
@@ -6128,12 +6128,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>67969</t>
+          <t>69363</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>127846</t>
+          <t>127220</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6143,12 +6143,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6163,12 +6163,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>94721</t>
+          <t>91212</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>154876</t>
+          <t>153427</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6178,12 +6178,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6198,12 +6198,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>187582</t>
+          <t>185888</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>274841</t>
+          <t>270796</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6213,12 +6213,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>6,25%</t>
         </is>
       </c>
     </row>
@@ -6241,12 +6241,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1974679</t>
+          <t>1975305</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2034556</t>
+          <t>2033162</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6256,12 +6256,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>93,92%</t>
+          <t>93,95%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>96,77%</t>
+          <t>96,7%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6276,12 +6276,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>2076460</t>
+          <t>2077909</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2136615</t>
+          <t>2140124</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6291,12 +6291,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>93,06%</t>
+          <t>93,12%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>95,75%</t>
+          <t>95,91%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6311,12 +6311,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>4059020</t>
+          <t>4063065</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4146279</t>
+          <t>4147973</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6326,12 +6326,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>93,66%</t>
+          <t>93,75%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>95,67%</t>
+          <t>95,71%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_DIG-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_DIG-Edad-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el estómago en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos para el estómago en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2980</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13502</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1,24%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5,6%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1870</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>11690</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>538</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>1550</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0,81%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>0,15%</t>
-        </is>
-      </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>4850</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>1799</t>
+          <t>16980</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>3,68%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>238285</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>227763</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>98,76%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>94,4%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>117</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>65704</t>
+          <t>217785</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>64692</t>
+          <t>207965</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>66145</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>99,19%</t>
+          <t>99,15%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>97,66%</t>
+          <t>94,68%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,85%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>210</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>142585</t>
+          <t>456070</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>141324</t>
+          <t>443940</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>143024</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>99,62%</t>
+          <t>98,95%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>98,74%</t>
+          <t>96,32%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,93%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>212</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>889</t>
+          <t>2943</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2085</t>
+          <t>10686</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4999</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1467</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>13403</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1,76%</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,52%</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>4,73%</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>794</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>330</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>1818</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>1,17%</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>0,49%</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>2,67%</t>
-        </is>
-      </c>
-      <c r="Q7" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>1683</t>
+          <t>7942</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>904</t>
+          <t>3343</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>3087</t>
+          <t>17004</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>3,12%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>74094</t>
+          <t>259031</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>72898</t>
+          <t>251288</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>74669</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,81%</t>
+          <t>98,88%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,22%</t>
+          <t>95,92%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,58%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>245</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>67254</t>
+          <t>278454</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>66230</t>
+          <t>270050</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>67718</t>
+          <t>281986</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>98,83%</t>
+          <t>98,24%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>97,33%</t>
+          <t>95,27%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,51%</t>
+          <t>99,48%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>396</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>141348</t>
+          <t>537484</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>139944</t>
+          <t>528422</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>142127</t>
+          <t>542083</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>98,82%</t>
+          <t>98,54%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>97,84%</t>
+          <t>96,88%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,37%</t>
+          <t>99,39%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>402</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2815</t>
+          <t>8110</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>3397</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4553</t>
+          <t>15466</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2511</t>
+          <t>11637</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1426</t>
+          <t>6994</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4249</t>
+          <t>19449</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>24</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>5326</t>
+          <t>19747</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>3650</t>
+          <t>13276</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>7638</t>
+          <t>30594</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>4,12%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>306</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>101145</t>
+          <t>360208</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>99407</t>
+          <t>352852</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>102321</t>
+          <t>364921</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,29%</t>
+          <t>97,8%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,62%</t>
+          <t>95,8%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,42%</t>
+          <t>99,08%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>476</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>108204</t>
+          <t>361748</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>106466</t>
+          <t>353936</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>109289</t>
+          <t>366391</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>97,73%</t>
+          <t>96,88%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>96,16%</t>
+          <t>94,79%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,71%</t>
+          <t>98,13%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1116</t>
+          <t>782</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>209349</t>
+          <t>721956</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>207037</t>
+          <t>711109</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>211025</t>
+          <t>728427</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>97,52%</t>
+          <t>97,34%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>96,44%</t>
+          <t>95,88%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,3%</t>
+          <t>98,21%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>493</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>806</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5507</t>
+          <t>23777</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3762</t>
+          <t>15056</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7674</t>
+          <t>34122</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6916</t>
+          <t>17686</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4965</t>
+          <t>12154</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9719</t>
+          <t>25286</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>52</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>12423</t>
+          <t>41462</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>9740</t>
+          <t>30879</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>15559</t>
+          <t>53022</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>6,13%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>367</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>139271</t>
+          <t>400164</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>137104</t>
+          <t>389819</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>141016</t>
+          <t>408885</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,2%</t>
+          <t>94,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>94,7%</t>
+          <t>91,95%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>96,45%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>631</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>145628</t>
+          <t>423606</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>142825</t>
+          <t>416006</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>147579</t>
+          <t>429138</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>95,47%</t>
+          <t>95,99%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,63%</t>
+          <t>94,27%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,74%</t>
+          <t>97,25%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1541</t>
+          <t>998</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>284898</t>
+          <t>823772</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>281762</t>
+          <t>812212</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>287581</t>
+          <t>834355</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>95,82%</t>
+          <t>95,21%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>94,77%</t>
+          <t>93,87%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,72%</t>
+          <t>96,43%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>803</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>660</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1615</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,107 +2102,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11307</t>
+          <t>24083</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8646</t>
+          <t>16666</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14424</t>
+          <t>34552</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11060</t>
+          <t>34036</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>8486</t>
+          <t>25931</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>14501</t>
+          <t>44255</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>82</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>22367</t>
+          <t>58119</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>18848</t>
+          <t>46542</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>26494</t>
+          <t>71456</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>9,81%</t>
         </is>
       </c>
     </row>
@@ -2215,107 +2215,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>371</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>118275</t>
+          <t>343960</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>115158</t>
+          <t>333491</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>120936</t>
+          <t>351377</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>91,27%</t>
+          <t>93,46%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>88,87%</t>
+          <t>90,61%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>93,33%</t>
+          <t>95,47%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>511</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>140855</t>
+          <t>326330</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>137414</t>
+          <t>316111</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>143429</t>
+          <t>334435</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>92,72%</t>
+          <t>90,56%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>90,45%</t>
+          <t>87,72%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>94,41%</t>
+          <t>92,8%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1462</t>
+          <t>882</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>259131</t>
+          <t>670289</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>255004</t>
+          <t>656952</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>262650</t>
+          <t>681866</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>92,05%</t>
+          <t>92,02%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>90,59%</t>
+          <t>90,19%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>93,3%</t>
+          <t>93,61%</t>
         </is>
       </c>
     </row>
@@ -2328,22 +2328,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>398</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2363,22 +2363,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>566</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2398,22 +2398,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>964</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2445,107 +2445,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>13564</t>
+          <t>18013</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11084</t>
+          <t>11852</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17157</t>
+          <t>25268</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>15887</t>
+          <t>31327</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>12770</t>
+          <t>24407</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>19322</t>
+          <t>40409</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>13,72%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>87</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>29451</t>
+          <t>49341</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>25222</t>
+          <t>39931</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>34185</t>
+          <t>60091</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>11,99%</t>
         </is>
       </c>
     </row>
@@ -2558,107 +2558,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>290</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>90902</t>
+          <t>213260</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>87309</t>
+          <t>206005</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>93382</t>
+          <t>219421</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>87,02%</t>
+          <t>92,21%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>83,58%</t>
+          <t>89,07%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>89,39%</t>
+          <t>94,88%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>422</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>99893</t>
+          <t>238705</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>96458</t>
+          <t>229623</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>103010</t>
+          <t>245625</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>86,28%</t>
+          <t>88,4%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>83,31%</t>
+          <t>85,04%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>88,97%</t>
+          <t>90,96%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1174</t>
+          <t>712</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>190795</t>
+          <t>451963</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>186061</t>
+          <t>441213</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>195024</t>
+          <t>461373</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>86,63%</t>
+          <t>90,16%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>84,48%</t>
+          <t>88,01%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>88,55%</t>
+          <t>92,03%</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>317</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2706,22 +2706,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>482</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2741,22 +2741,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>799</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2788,107 +2788,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>20092</t>
+          <t>26339</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>16927</t>
+          <t>19641</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>23714</t>
+          <t>34447</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>22,52%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>18,97%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>26,58%</t>
+          <t>20,8%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>85</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>26753</t>
+          <t>45893</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>23044</t>
+          <t>37477</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>31072</t>
+          <t>56191</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>17,88%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>21,9%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>126</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>46845</t>
+          <t>72232</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>41880</t>
+          <t>61230</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>52557</t>
+          <t>85074</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>21,15%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>23,72%</t>
+          <t>20,15%</t>
         </is>
       </c>
     </row>
@@ -2901,107 +2901,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>190</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>69131</t>
+          <t>139242</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>65509</t>
+          <t>131134</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>72296</t>
+          <t>145940</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>77,48%</t>
+          <t>84,09%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>73,42%</t>
+          <t>79,2%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>81,03%</t>
+          <t>88,14%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>356</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>105559</t>
+          <t>210714</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>101240</t>
+          <t>200416</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>109268</t>
+          <t>219130</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>79,78%</t>
+          <t>82,12%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>76,52%</t>
+          <t>78,1%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>82,58%</t>
+          <t>85,4%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1075</t>
+          <t>546</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>174690</t>
+          <t>349956</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>168978</t>
+          <t>337114</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>179655</t>
+          <t>360958</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>78,85%</t>
+          <t>82,89%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>76,28%</t>
+          <t>79,85%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>81,1%</t>
+          <t>85,5%</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>441</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256607</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256607</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256607</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3084,22 +3084,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>672</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>422188</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>422188</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>422188</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3131,107 +3131,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>128</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>54175</t>
+          <t>106244</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>48389</t>
+          <t>88950</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>60837</t>
+          <t>128550</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>251</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>64458</t>
+          <t>147449</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>58504</t>
+          <t>130013</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>71335</t>
+          <t>166967</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>711</t>
+          <t>379</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>118633</t>
+          <t>253693</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>108945</t>
+          <t>226177</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>127198</t>
+          <t>279435</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>6,55%</t>
         </is>
       </c>
     </row>
@@ -3244,107 +3244,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3753</t>
+          <t>1768</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>669697</t>
+          <t>1954151</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>663035</t>
+          <t>1931845</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>675483</t>
+          <t>1971445</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>92,52%</t>
+          <t>94,84%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>91,6%</t>
+          <t>93,76%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>93,32%</t>
+          <t>95,68%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>4089</t>
+          <t>2758</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>733098</t>
+          <t>2057341</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>726221</t>
+          <t>2037823</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>739052</t>
+          <t>2074777</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>91,92%</t>
+          <t>93,31%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>91,06%</t>
+          <t>92,43%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>92,66%</t>
+          <t>94,1%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>7842</t>
+          <t>4526</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1402796</t>
+          <t>4011492</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1394231</t>
+          <t>3985750</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1412484</t>
+          <t>4039008</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>92,2%</t>
+          <t>94,05%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>91,64%</t>
+          <t>93,45%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>92,84%</t>
+          <t>94,7%</t>
         </is>
       </c>
     </row>
@@ -3357,22 +3357,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>4078</t>
+          <t>1896</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2060395</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2060395</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2060395</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3392,22 +3392,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4475</t>
+          <t>3009</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204790</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204790</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204790</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3427,22 +3427,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>8553</t>
+          <t>4905</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4265185</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4265185</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4265185</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3532,7 +3532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el estómago en Andalucia (tasa de respuesta: 99,9%)</t>
+          <t>Consumo de medicamentos para el estómago en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3717,12 +3717,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5788</t>
+          <t>1782</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -3732,12 +3732,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25295</t>
+          <t>6250</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -3747,77 +3747,77 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1632</t>
+          <t>2922</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1037</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>10429</t>
+          <t>6908</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>7419</t>
+          <t>4705</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2126</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>29693</t>
+          <t>9510</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>2,79%</t>
         </is>
       </c>
     </row>
@@ -3830,32 +3830,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>270</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>230448</t>
+          <t>168389</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>210941</t>
+          <t>163921</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,55%</t>
+          <t>98,95%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>89,29%</t>
+          <t>96,33%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -3865,72 +3865,72 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>264</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>182721</t>
+          <t>167520</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>173924</t>
+          <t>163534</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>169405</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>99,11%</t>
+          <t>98,29%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>94,34%</t>
+          <t>95,95%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,39%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>534</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>413170</t>
+          <t>335908</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>390896</t>
+          <t>331103</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>338487</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>98,24%</t>
+          <t>98,62%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>97,21%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,38%</t>
         </is>
       </c>
     </row>
@@ -3943,22 +3943,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3978,22 +3978,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>270</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4013,22 +4013,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>542</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4060,107 +4060,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>8592</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4852</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6443</t>
+          <t>14487</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3743</t>
+          <t>6477</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>905</t>
+          <t>3217</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10672</t>
+          <t>12075</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>24</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>5099</t>
+          <t>15069</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>1469</t>
+          <t>9856</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>12250</t>
+          <t>22299</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>5,66%</t>
         </is>
       </c>
     </row>
@@ -4173,107 +4173,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>275</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>228013</t>
+          <t>173621</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>222925</t>
+          <t>167726</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>177361</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,41%</t>
+          <t>95,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,19%</t>
+          <t>92,05%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,34%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>305</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>310685</t>
+          <t>205001</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>303756</t>
+          <t>199403</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>313523</t>
+          <t>208261</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>98,81%</t>
+          <t>96,94%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,61%</t>
+          <t>94,29%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,71%</t>
+          <t>98,48%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>580</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>538697</t>
+          <t>378621</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>531546</t>
+          <t>371391</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>542327</t>
+          <t>383834</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,06%</t>
+          <t>96,17%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>97,75%</t>
+          <t>94,34%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,73%</t>
+          <t>97,5%</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4321,22 +4321,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>315</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4356,22 +4356,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>604</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4403,107 +4403,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8131</t>
+          <t>6067</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3442</t>
+          <t>3044</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15406</t>
+          <t>10934</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9735</t>
+          <t>11984</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5653</t>
+          <t>7595</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16085</t>
+          <t>18617</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>17866</t>
+          <t>18051</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>11789</t>
+          <t>11928</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>27648</t>
+          <t>25402</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>5,11%</t>
         </is>
       </c>
     </row>
@@ -4516,107 +4516,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>381</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>302638</t>
+          <t>242246</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>295363</t>
+          <t>237379</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>307327</t>
+          <t>245269</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,38%</t>
+          <t>97,56%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,04%</t>
+          <t>95,6%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,89%</t>
+          <t>98,77%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>388</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>312878</t>
+          <t>236667</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>306528</t>
+          <t>230034</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>316960</t>
+          <t>241056</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,98%</t>
+          <t>95,18%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>95,01%</t>
+          <t>92,51%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,25%</t>
+          <t>96,95%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>769</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>615515</t>
+          <t>478913</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>605733</t>
+          <t>471562</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>621592</t>
+          <t>485036</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>97,18%</t>
+          <t>96,37%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,63%</t>
+          <t>94,89%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,14%</t>
+          <t>97,6%</t>
         </is>
       </c>
     </row>
@@ -4629,22 +4629,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>392</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4664,22 +4664,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>406</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4699,22 +4699,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>798</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4746,107 +4746,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22440</t>
+          <t>13274</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6379</t>
+          <t>8316</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>43519</t>
+          <t>19562</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15257</t>
+          <t>10058</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10015</t>
+          <t>5789</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>22267</t>
+          <t>15954</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>42</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>37697</t>
+          <t>23332</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>17633</t>
+          <t>16199</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>53539</t>
+          <t>30933</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>5,37%</t>
         </is>
       </c>
     </row>
@@ -4859,107 +4859,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>460</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>604724</t>
+          <t>283733</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>583645</t>
+          <t>277445</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>620785</t>
+          <t>288691</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,42%</t>
+          <t>95,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,06%</t>
+          <t>93,41%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,98%</t>
+          <t>97,2%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>440</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>389545</t>
+          <t>268917</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>382535</t>
+          <t>263021</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>394787</t>
+          <t>273186</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>96,23%</t>
+          <t>96,39%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>94,5%</t>
+          <t>94,28%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>97,53%</t>
+          <t>97,93%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>998</t>
+          <t>900</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>994269</t>
+          <t>552651</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>978427</t>
+          <t>545050</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1014333</t>
+          <t>559784</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>96,35%</t>
+          <t>95,95%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>94,81%</t>
+          <t>94,63%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,29%</t>
+          <t>97,19%</t>
         </is>
       </c>
     </row>
@@ -4972,22 +4972,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>485</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5007,22 +5007,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>457</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5042,22 +5042,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>942</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5089,107 +5089,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>22987</t>
+          <t>13952</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15698</t>
+          <t>8696</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>32916</t>
+          <t>21129</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>30025</t>
+          <t>13350</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>22557</t>
+          <t>8638</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>39254</t>
+          <t>19588</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>47</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>53012</t>
+          <t>27302</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>42435</t>
+          <t>20961</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>65521</t>
+          <t>36791</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>7,53%</t>
         </is>
       </c>
     </row>
@@ -5202,107 +5202,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>347</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>316142</t>
+          <t>220748</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>306213</t>
+          <t>213571</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>323431</t>
+          <t>226004</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>93,22%</t>
+          <t>94,06%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>90,29%</t>
+          <t>91,0%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>95,37%</t>
+          <t>96,29%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>394</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>288869</t>
+          <t>240746</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>279640</t>
+          <t>234508</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>296337</t>
+          <t>245458</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>90,58%</t>
+          <t>94,75%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>87,69%</t>
+          <t>92,29%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>92,93%</t>
+          <t>96,6%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>882</t>
+          <t>741</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>605012</t>
+          <t>461494</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>592503</t>
+          <t>452005</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>615589</t>
+          <t>467835</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>91,94%</t>
+          <t>94,41%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>90,04%</t>
+          <t>92,47%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>93,55%</t>
+          <t>95,71%</t>
         </is>
       </c>
     </row>
@@ -5315,22 +5315,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>370</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5350,22 +5350,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>418</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5385,22 +5385,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>788</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5432,107 +5432,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16573</t>
+          <t>12314</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11058</t>
+          <t>8877</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>23614</t>
+          <t>16899</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>28562</t>
+          <t>18685</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7512</t>
+          <t>14186</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>56563</t>
+          <t>24643</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>91</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>45135</t>
+          <t>30999</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>16005</t>
+          <t>24863</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>69855</t>
+          <t>37647</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>10,1%</t>
         </is>
       </c>
     </row>
@@ -5545,107 +5545,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>528</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>191511</t>
+          <t>171734</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>184470</t>
+          <t>167149</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>197026</t>
+          <t>175171</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>92,04%</t>
+          <t>93,31%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>88,65%</t>
+          <t>90,82%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>95,18%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>437</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>424080</t>
+          <t>169989</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>396079</t>
+          <t>164031</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>445130</t>
+          <t>174488</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>93,69%</t>
+          <t>90,1%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>87,5%</t>
+          <t>86,94%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>98,34%</t>
+          <t>92,48%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>965</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>615592</t>
+          <t>341724</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>590872</t>
+          <t>335076</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>644722</t>
+          <t>347860</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>93,17%</t>
+          <t>91,68%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>89,43%</t>
+          <t>89,9%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,58%</t>
+          <t>93,33%</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5658,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>570</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5693,22 +5693,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>486</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5728,22 +5728,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>1056</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5775,107 +5775,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>24935</t>
+          <t>23019</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>18439</t>
+          <t>18214</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>32522</t>
+          <t>27869</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>84</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>42042</t>
+          <t>29839</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>34064</t>
+          <t>24432</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>50799</t>
+          <t>37201</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>163</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>66977</t>
+          <t>52858</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>56660</t>
+          <t>45207</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>78361</t>
+          <t>61662</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>17,38%</t>
+          <t>14,75%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>17,21%</t>
         </is>
       </c>
     </row>
@@ -5888,107 +5888,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>402</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>126840</t>
+          <t>123514</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>119253</t>
+          <t>118664</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>133336</t>
+          <t>128319</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>83,57%</t>
+          <t>84,29%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>78,57%</t>
+          <t>80,98%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>87,85%</t>
+          <t>87,57%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>444</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>191562</t>
+          <t>181981</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>182805</t>
+          <t>174619</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>199540</t>
+          <t>187388</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>82,0%</t>
+          <t>85,91%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>78,25%</t>
+          <t>82,44%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>85,42%</t>
+          <t>88,47%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>846</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>318402</t>
+          <t>305495</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>307018</t>
+          <t>296691</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>328719</t>
+          <t>313146</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>82,62%</t>
+          <t>85,25%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>79,67%</t>
+          <t>82,79%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>85,3%</t>
+          <t>87,38%</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>481</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>146533</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>146533</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>146533</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6036,22 +6036,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>528</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>233604</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>233604</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>233604</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6071,22 +6071,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>1009</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>385379</t>
+          <t>358353</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>385379</t>
+          <t>358353</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>385379</t>
+          <t>358353</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6118,107 +6118,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>196</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>102209</t>
+          <t>79001</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>69363</t>
+          <t>67881</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>127220</t>
+          <t>91053</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>208</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>130996</t>
+          <t>93316</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>91212</t>
+          <t>80516</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>153427</t>
+          <t>108013</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>404</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>233204</t>
+          <t>172317</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>185888</t>
+          <t>153536</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>270796</t>
+          <t>190474</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>6,29%</t>
         </is>
       </c>
     </row>
@@ -6231,107 +6231,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1768</t>
+          <t>2663</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2000316</t>
+          <t>1383985</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1975305</t>
+          <t>1371933</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2033162</t>
+          <t>1395105</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>95,14%</t>
+          <t>94,6%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>93,95%</t>
+          <t>93,78%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>95,36%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2758</t>
+          <t>2672</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>2100340</t>
+          <t>1470821</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>2077909</t>
+          <t>1456124</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2140124</t>
+          <t>1483621</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>94,13%</t>
+          <t>94,03%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>93,12%</t>
+          <t>93,09%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>95,91%</t>
+          <t>94,85%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>4526</t>
+          <t>5335</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>4100657</t>
+          <t>2854805</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>4063065</t>
+          <t>2836648</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4147973</t>
+          <t>2873586</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>94,62%</t>
+          <t>94,31%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>93,75%</t>
+          <t>93,71%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>95,71%</t>
+          <t>94,93%</t>
         </is>
       </c>
     </row>
@@ -6344,22 +6344,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1896</t>
+          <t>2859</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2102525</t>
+          <t>1462986</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2102525</t>
+          <t>1462986</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2102525</t>
+          <t>1462986</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6379,22 +6379,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3009</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2231336</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>2231336</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>2231336</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6414,22 +6414,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>4905</t>
+          <t>5739</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>4333861</t>
+          <t>3027122</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>4333861</t>
+          <t>3027122</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>4333861</t>
+          <t>3027122</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -6519,7 +6519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el estómago en C.Valenciana (tasa de respuesta: 99,74%)</t>
+          <t>Consumo de medicamentos para el estómago en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6704,107 +6704,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1782</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6250</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2922</t>
+          <t>538</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1037</t>
+          <t>97</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6908</t>
+          <t>1550</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>4705</t>
+          <t>538</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>2126</t>
+          <t>99</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>9510</t>
+          <t>1799</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>1,26%</t>
         </is>
       </c>
     </row>
@@ -6817,107 +6817,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>168389</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>163921</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>98,95%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>345</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>167520</t>
+          <t>65704</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>163534</t>
+          <t>64692</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>169405</t>
+          <t>66145</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,29%</t>
+          <t>99,19%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>95,95%</t>
+          <t>97,66%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,39%</t>
+          <t>99,85%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>721</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>335908</t>
+          <t>142585</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>331103</t>
+          <t>141324</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>338487</t>
+          <t>143024</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>98,62%</t>
+          <t>99,62%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>97,21%</t>
+          <t>98,74%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,38%</t>
+          <t>99,93%</t>
         </is>
       </c>
     </row>
@@ -6930,22 +6930,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -6965,22 +6965,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -7000,22 +7000,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>724</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -7047,107 +7047,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8592</t>
+          <t>889</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4852</t>
+          <t>314</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14487</t>
+          <t>2085</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6477</t>
+          <t>794</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3217</t>
+          <t>330</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12075</t>
+          <t>1818</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>15069</t>
+          <t>1683</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>9856</t>
+          <t>904</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>22299</t>
+          <t>3087</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>2,16%</t>
         </is>
       </c>
     </row>
@@ -7160,107 +7160,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>392</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>173621</t>
+          <t>74094</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>167726</t>
+          <t>72898</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>177361</t>
+          <t>74669</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,28%</t>
+          <t>98,81%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,05%</t>
+          <t>97,22%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,34%</t>
+          <t>99,58%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>361</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>205001</t>
+          <t>67254</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>199403</t>
+          <t>66230</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>208261</t>
+          <t>67718</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,94%</t>
+          <t>98,83%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>94,29%</t>
+          <t>97,33%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,48%</t>
+          <t>99,51%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>753</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>378621</t>
+          <t>141348</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>371391</t>
+          <t>139944</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>383834</t>
+          <t>142127</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,17%</t>
+          <t>98,82%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,34%</t>
+          <t>97,84%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,5%</t>
+          <t>99,37%</t>
         </is>
       </c>
     </row>
@@ -7273,22 +7273,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>397</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -7308,22 +7308,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -7343,22 +7343,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>764</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -7390,107 +7390,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6067</t>
+          <t>2815</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3044</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10934</t>
+          <t>4553</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11984</t>
+          <t>2511</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7595</t>
+          <t>1426</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>18617</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>32</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>18051</t>
+          <t>5326</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>11928</t>
+          <t>3650</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>25402</t>
+          <t>7638</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>3,56%</t>
         </is>
       </c>
     </row>
@@ -7503,107 +7503,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>550</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>242246</t>
+          <t>101145</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>237379</t>
+          <t>99407</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>245269</t>
+          <t>102321</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,56%</t>
+          <t>97,29%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,6%</t>
+          <t>95,62%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,77%</t>
+          <t>98,42%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>566</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>236667</t>
+          <t>108204</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>230034</t>
+          <t>106466</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>241056</t>
+          <t>109289</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,18%</t>
+          <t>97,73%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>92,51%</t>
+          <t>96,16%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,95%</t>
+          <t>98,71%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>1116</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>478913</t>
+          <t>209349</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>471562</t>
+          <t>207037</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>485036</t>
+          <t>211025</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>97,52%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>96,44%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,6%</t>
+          <t>98,3%</t>
         </is>
       </c>
     </row>
@@ -7616,22 +7616,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>568</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -7651,22 +7651,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>580</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -7686,22 +7686,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7733,107 +7733,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13274</t>
+          <t>5507</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8316</t>
+          <t>3762</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19562</t>
+          <t>7674</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10058</t>
+          <t>6916</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5789</t>
+          <t>4965</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15954</t>
+          <t>9719</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>74</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>23332</t>
+          <t>12423</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>16199</t>
+          <t>9740</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>30933</t>
+          <t>15559</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>5,23%</t>
         </is>
       </c>
     </row>
@@ -7846,107 +7846,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>769</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>283733</t>
+          <t>139271</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>277445</t>
+          <t>137104</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>288691</t>
+          <t>141016</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,53%</t>
+          <t>96,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,41%</t>
+          <t>94,7%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,2%</t>
+          <t>97,4%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>772</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>268917</t>
+          <t>145628</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>263021</t>
+          <t>142825</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>273186</t>
+          <t>147579</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>96,39%</t>
+          <t>95,47%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>94,28%</t>
+          <t>93,63%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>97,93%</t>
+          <t>96,74%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>1541</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>552651</t>
+          <t>284898</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>545050</t>
+          <t>281762</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>559784</t>
+          <t>287581</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>95,95%</t>
+          <t>95,82%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>94,63%</t>
+          <t>94,77%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,19%</t>
+          <t>96,72%</t>
         </is>
       </c>
     </row>
@@ -7959,22 +7959,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>803</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -7994,22 +7994,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>812</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -8029,22 +8029,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>942</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -8076,107 +8076,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>13952</t>
+          <t>11307</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8696</t>
+          <t>8646</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>21129</t>
+          <t>14424</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>13350</t>
+          <t>11060</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>8638</t>
+          <t>8486</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>19588</t>
+          <t>14501</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>130</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>27302</t>
+          <t>22367</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>20961</t>
+          <t>18848</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>36791</t>
+          <t>26494</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>9,41%</t>
         </is>
       </c>
     </row>
@@ -8189,107 +8189,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>667</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>220748</t>
+          <t>118275</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>213571</t>
+          <t>115158</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>226004</t>
+          <t>120936</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>94,06%</t>
+          <t>91,27%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>91,0%</t>
+          <t>88,87%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>96,29%</t>
+          <t>93,33%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>795</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>240746</t>
+          <t>140855</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>234508</t>
+          <t>137414</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>245458</t>
+          <t>143429</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>94,75%</t>
+          <t>92,72%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>92,29%</t>
+          <t>90,45%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>96,6%</t>
+          <t>94,41%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>1462</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>461494</t>
+          <t>259131</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>452005</t>
+          <t>255004</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>467835</t>
+          <t>262650</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>94,41%</t>
+          <t>92,05%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>92,47%</t>
+          <t>90,59%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,71%</t>
+          <t>93,3%</t>
         </is>
       </c>
     </row>
@@ -8302,22 +8302,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>733</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -8337,22 +8337,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>859</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -8372,22 +8372,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>1592</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -8419,107 +8419,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>12314</t>
+          <t>13564</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8877</t>
+          <t>11084</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16899</t>
+          <t>17157</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>12,98%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>94</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>18685</t>
+          <t>15887</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>14186</t>
+          <t>12770</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>24643</t>
+          <t>19322</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>16,69%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>175</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>30999</t>
+          <t>29451</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>24863</t>
+          <t>25222</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>37647</t>
+          <t>34185</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>15,52%</t>
         </is>
       </c>
     </row>
@@ -8532,107 +8532,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>565</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>171734</t>
+          <t>90902</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>167149</t>
+          <t>87309</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>175171</t>
+          <t>93382</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>93,31%</t>
+          <t>87,02%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>90,82%</t>
+          <t>83,58%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>95,18%</t>
+          <t>89,39%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>609</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>169989</t>
+          <t>99893</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>164031</t>
+          <t>96458</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>174488</t>
+          <t>103010</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>90,1%</t>
+          <t>86,28%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>86,94%</t>
+          <t>83,31%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>92,48%</t>
+          <t>88,97%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>965</t>
+          <t>1174</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>341724</t>
+          <t>190795</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>335076</t>
+          <t>186061</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>347860</t>
+          <t>195024</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>91,68%</t>
+          <t>86,63%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>89,9%</t>
+          <t>84,48%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>93,33%</t>
+          <t>88,55%</t>
         </is>
       </c>
     </row>
@@ -8645,22 +8645,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>646</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -8680,22 +8680,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>703</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -8715,22 +8715,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1056</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -8762,107 +8762,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>23019</t>
+          <t>20092</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>18214</t>
+          <t>16927</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>27869</t>
+          <t>23714</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>26,58%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>165</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>29839</t>
+          <t>26753</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>24432</t>
+          <t>23044</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>37201</t>
+          <t>31072</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>20,22%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>23,48%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>286</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>52858</t>
+          <t>46845</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>45207</t>
+          <t>41880</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>61662</t>
+          <t>52557</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>21,15%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>23,72%</t>
         </is>
       </c>
     </row>
@@ -8875,107 +8875,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>434</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>123514</t>
+          <t>69131</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>118664</t>
+          <t>65509</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>128319</t>
+          <t>72296</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>84,29%</t>
+          <t>77,48%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>80,98%</t>
+          <t>73,42%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>87,57%</t>
+          <t>81,03%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>641</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>181981</t>
+          <t>105559</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>174619</t>
+          <t>101240</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>187388</t>
+          <t>109268</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>85,91%</t>
+          <t>79,78%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>82,44%</t>
+          <t>76,52%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>88,47%</t>
+          <t>82,58%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>846</t>
+          <t>1075</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>305495</t>
+          <t>174690</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>296691</t>
+          <t>168978</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>313146</t>
+          <t>179655</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>85,25%</t>
+          <t>78,85%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>82,79%</t>
+          <t>76,28%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>87,38%</t>
+          <t>81,1%</t>
         </is>
       </c>
     </row>
@@ -8988,22 +8988,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>555</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>146533</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>146533</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>146533</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -9023,22 +9023,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>806</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -9058,22 +9058,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>358353</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>358353</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>358353</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -9105,107 +9105,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>325</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>79001</t>
+          <t>54175</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>67881</t>
+          <t>48389</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>91053</t>
+          <t>60837</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>386</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>93316</t>
+          <t>64458</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>80516</t>
+          <t>58504</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>108013</t>
+          <t>71335</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>711</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>172317</t>
+          <t>118633</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>153536</t>
+          <t>108945</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>190474</t>
+          <t>127198</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>8,36%</t>
         </is>
       </c>
     </row>
@@ -9218,107 +9218,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2663</t>
+          <t>3753</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1383985</t>
+          <t>669697</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1371933</t>
+          <t>663035</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1395105</t>
+          <t>675483</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>94,6%</t>
+          <t>92,52%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>93,78%</t>
+          <t>91,6%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>95,36%</t>
+          <t>93,32%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2672</t>
+          <t>4089</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1470821</t>
+          <t>733098</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1456124</t>
+          <t>726221</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1483621</t>
+          <t>739052</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>94,03%</t>
+          <t>91,92%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>93,09%</t>
+          <t>91,06%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>94,85%</t>
+          <t>92,66%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>5335</t>
+          <t>7842</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>2854805</t>
+          <t>1402796</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>2836648</t>
+          <t>1394231</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>2873586</t>
+          <t>1412484</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>94,31%</t>
+          <t>92,2%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>93,71%</t>
+          <t>91,64%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>94,93%</t>
+          <t>92,84%</t>
         </is>
       </c>
     </row>
@@ -9331,22 +9331,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2859</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>1462986</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>1462986</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1462986</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -9366,22 +9366,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -9401,22 +9401,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>5739</t>
+          <t>8553</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>3027122</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>3027122</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>3027122</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
